--- a/storage/pruebas/formato_subida_masiva.xlsx
+++ b/storage/pruebas/formato_subida_masiva.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeffer\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\habeas\storage\pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Nombre</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Paez</t>
   </si>
   <si>
-    <t>1985-01-30</t>
-  </si>
-  <si>
     <t>email@example.com</t>
   </si>
   <si>
@@ -122,22 +119,25 @@
     <t>Id_area</t>
   </si>
   <si>
-    <t>Id_responsable</t>
-  </si>
-  <si>
-    <t>Id_operario</t>
-  </si>
-  <si>
     <t>Id_ciudad</t>
   </si>
   <si>
     <t>Tipo documento</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Ruiz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,14 +180,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -204,7 +207,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -466,199 +469,259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2">
         <v>525</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="2">
-        <v>102154240</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="G2" s="2">
+        <v>25259710</v>
+      </c>
+      <c r="H2" s="6">
+        <v>31077</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="2">
+        <v>78712145</v>
+      </c>
+      <c r="K2" s="2">
+        <v>3145678902</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2">
-        <v>78712145</v>
-      </c>
-      <c r="M2" s="2">
-        <v>3145678902</v>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" s="2">
+        <v>7848817</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>3167890235</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="2">
-        <v>7848817</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="S2" s="2">
-        <v>3167890235</v>
+        <v>123</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="U2" s="2">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="W2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>525</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>54878797</v>
+      </c>
+      <c r="H3" s="6">
+        <v>31077</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2">
+        <v>78712145</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3145678902</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>7848817</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>3167890235</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="2">
+        <v>123</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="2">
         <v>0</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="2">
+      <c r="V3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="R2" r:id="rId2"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="P2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="P3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/storage/pruebas/formato_subida_masiva.xlsx
+++ b/storage/pruebas/formato_subida_masiva.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Nombre</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Ruiz</t>
+  </si>
+  <si>
+    <t>tipo_registro</t>
   </si>
 </sst>
 </file>
@@ -136,7 +139,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -187,7 +190,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -469,257 +472,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
         <v>525</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
-        <v>25259710</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="H2" s="2">
+        <v>85874266</v>
+      </c>
+      <c r="I2" s="6">
         <v>31077</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>78712145</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>3145678902</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
         <v>7848817</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="R2" s="2">
         <v>3167890235</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="2">
+      <c r="T2" s="2">
         <v>123</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="2">
+      <c r="V2" s="2">
         <v>0</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="2">
+      <c r="X2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
         <v>525</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
-        <v>54878797</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="H3" s="2">
+        <v>1023684</v>
+      </c>
+      <c r="I3" s="6">
         <v>31077</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>78712145</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>3145678902</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
         <v>7848817</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="R3" s="2">
         <v>3167890235</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="2">
+      <c r="T3" s="2">
         <v>123</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="2">
+      <c r="V3" s="2">
         <v>0</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="2">
+      <c r="X3" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="P2" r:id="rId2"/>
-    <hyperlink ref="I3" r:id="rId3"/>
-    <hyperlink ref="P3" r:id="rId4"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="Q3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId5"/>
